--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H2">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I2">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J2">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>1087.937328174701</v>
+        <v>234.1611487910211</v>
       </c>
       <c r="R2">
-        <v>9791.435953572312</v>
+        <v>2107.45033911919</v>
       </c>
       <c r="S2">
-        <v>0.09252858089822723</v>
+        <v>0.02771637538398175</v>
       </c>
       <c r="T2">
-        <v>0.0925285808982272</v>
+        <v>0.02771637538398175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H3">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I3">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J3">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>944.1934898959217</v>
+        <v>308.5516320208338</v>
       </c>
       <c r="R3">
-        <v>8497.741409063296</v>
+        <v>2776.964688187504</v>
       </c>
       <c r="S3">
-        <v>0.08030323204369839</v>
+        <v>0.03652157030567812</v>
       </c>
       <c r="T3">
-        <v>0.08030323204369837</v>
+        <v>0.03652157030567812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H4">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I4">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J4">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>1320.14885404406</v>
+        <v>431.4095445316285</v>
       </c>
       <c r="R4">
-        <v>11881.33968639654</v>
+        <v>3882.685900784656</v>
       </c>
       <c r="S4">
-        <v>0.1122780668295101</v>
+        <v>0.05106358993456433</v>
       </c>
       <c r="T4">
-        <v>0.1122780668295101</v>
+        <v>0.05106358993456433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.764247</v>
       </c>
       <c r="I5">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J5">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>1005.18834371302</v>
+        <v>662.0511734240877</v>
       </c>
       <c r="R5">
-        <v>9046.695093417182</v>
+        <v>5958.460560816789</v>
       </c>
       <c r="S5">
-        <v>0.08549081695289516</v>
+        <v>0.07836337898394882</v>
       </c>
       <c r="T5">
-        <v>0.08549081695289515</v>
+        <v>0.07836337898394882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.764247</v>
       </c>
       <c r="I6">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J6">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>872.3777240417404</v>
@@ -818,10 +818,10 @@
         <v>7851.399516375664</v>
       </c>
       <c r="S6">
-        <v>0.07419533342810856</v>
+        <v>0.1032585832491938</v>
       </c>
       <c r="T6">
-        <v>0.07419533342810852</v>
+        <v>0.1032585832491938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.764247</v>
       </c>
       <c r="I7">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J7">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>1219.737760333655</v>
@@ -880,10 +880,10 @@
         <v>10977.63984300289</v>
       </c>
       <c r="S7">
-        <v>0.1037381484290168</v>
+        <v>0.1443736922626554</v>
       </c>
       <c r="T7">
-        <v>0.1037381484290168</v>
+        <v>0.1443736922626554</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>44.155672</v>
       </c>
       <c r="I8">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J8">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>1722.727111070445</v>
+        <v>1134.646568981005</v>
       </c>
       <c r="R8">
-        <v>15504.54399963401</v>
+        <v>10211.81912082904</v>
       </c>
       <c r="S8">
-        <v>0.1465171666916591</v>
+        <v>0.1343019130047518</v>
       </c>
       <c r="T8">
-        <v>0.1465171666916591</v>
+        <v>0.1343019130047518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>44.155672</v>
       </c>
       <c r="I9">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J9">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>1495.111603412807</v>
       </c>
       <c r="R9">
-        <v>13456.00443071526</v>
+        <v>13456.00443071527</v>
       </c>
       <c r="S9">
-        <v>0.1271585700440691</v>
+        <v>0.1769681890231878</v>
       </c>
       <c r="T9">
-        <v>0.1271585700440691</v>
+        <v>0.1769681890231877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>44.155672</v>
       </c>
       <c r="I10">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J10">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>2090.429441671922</v>
       </c>
       <c r="R10">
-        <v>18813.86497504729</v>
+        <v>18813.8649750473</v>
       </c>
       <c r="S10">
-        <v>0.1777900846828157</v>
+        <v>0.2474327078520382</v>
       </c>
       <c r="T10">
-        <v>0.1777900846828157</v>
+        <v>0.2474327078520382</v>
       </c>
     </row>
   </sheetData>
